--- a/InterimResults/result.xlsx
+++ b/InterimResults/result.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/osaki/Documents/R_work/Day6/PBL_bank_marketing/InterimResults/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A90A5C-3E05-4C44-A346-0E0828B824AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5692FB-3EE5-8A46-AE49-B6C1830A12D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26400" yWindow="-3040" windowWidth="28300" windowHeight="17040" xr2:uid="{F2A7976C-976F-4949-A421-9957BD92AA4D}"/>
+    <workbookView xWindow="-29260" yWindow="-5600" windowWidth="28300" windowHeight="17040" xr2:uid="{F2A7976C-976F-4949-A421-9957BD92AA4D}"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
   <si>
     <t>成約</t>
     <rPh sb="0" eb="2">
@@ -135,6 +135,13 @@
     </rPh>
     <rPh sb="4" eb="7">
       <t>テキゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑感度</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">カンド </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -561,7 +568,7 @@
   <dimension ref="B2:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -752,6 +759,10 @@
       </c>
     </row>
     <row r="13" spans="2:10">
+      <c r="D13" s="2">
+        <f>D12/(D11+D12)</f>
+        <v>0.80821917808219179</v>
+      </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
@@ -764,6 +775,9 @@
       </c>
     </row>
     <row r="14" spans="2:10">
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
       <c r="I14" t="s">
         <v>7</v>
       </c>
